--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>useless</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -67,181 +67,208 @@
     <t>love</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>pleased</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>nice</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>easy</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>cook</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>job</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>really</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -602,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -721,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5038759689922481</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -739,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.921875</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -763,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -771,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.404040404040404</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -821,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8761609907120743</v>
+        <v>0.8730650154798761</v>
       </c>
       <c r="L6">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M6">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,13 +898,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.7322033898305085</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="L7">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.7316017316017316</v>
+        <v>0.7322033898305085</v>
       </c>
       <c r="L8">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="M8">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +950,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.6888888888888889</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +976,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.6853932584269663</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L10">
-        <v>854</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>854</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -967,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>392</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -975,13 +1002,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.6753246753246753</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -993,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1001,13 +1028,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.6590909090909091</v>
+        <v>0.6789727126805778</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>846</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>846</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1019,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1027,13 +1054,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6521739130434783</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1045,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1053,13 +1080,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6428571428571429</v>
+        <v>0.65625</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1071,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1079,13 +1106,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6338028169014085</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1097,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1105,13 +1132,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.59375</v>
+        <v>0.64</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1123,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1131,13 +1158,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.5903614457831325</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1149,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1157,13 +1184,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.5885714285714285</v>
+        <v>0.6047904191616766</v>
       </c>
       <c r="L18">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M18">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1175,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1183,13 +1210,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5769230769230769</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="L19">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1201,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1209,13 +1236,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5753424657534246</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1227,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1235,13 +1262,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5470085470085471</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L21">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1253,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1261,13 +1288,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5329341317365269</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L22">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1279,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1287,13 +1314,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5230769230769231</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1305,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1313,13 +1340,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5230769230769231</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1331,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1339,13 +1366,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5138888888888888</v>
+        <v>0.518796992481203</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1357,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1368,10 +1395,10 @@
         <v>0.5</v>
       </c>
       <c r="L26">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1383,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1391,13 +1418,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4962406015037594</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="M27">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1409,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1417,25 +1444,25 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4852941176470588</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L28">
+        <v>32</v>
+      </c>
+      <c r="M28">
+        <v>32</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>33</v>
-      </c>
-      <c r="M28">
-        <v>33</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>35</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1443,13 +1470,13 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.4819277108433735</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L29">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1461,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1469,13 +1496,13 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.4605263157894737</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1487,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1495,13 +1522,13 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.4474708171206226</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L31">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="M31">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1513,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>142</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1521,13 +1548,13 @@
         <v>42</v>
       </c>
       <c r="K32">
-        <v>0.4191780821917808</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L32">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1539,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>424</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1547,13 +1574,13 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>0.4144144144144144</v>
+        <v>0.44</v>
       </c>
       <c r="L33">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M33">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1565,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1573,13 +1600,13 @@
         <v>44</v>
       </c>
       <c r="K34">
-        <v>0.4093137254901961</v>
+        <v>0.4136986301369863</v>
       </c>
       <c r="L34">
-        <v>167</v>
+        <v>302</v>
       </c>
       <c r="M34">
-        <v>167</v>
+        <v>302</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1591,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>241</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1599,13 +1626,13 @@
         <v>45</v>
       </c>
       <c r="K35">
-        <v>0.3636363636363636</v>
+        <v>0.4085603112840467</v>
       </c>
       <c r="L35">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="M35">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1617,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1625,13 +1652,13 @@
         <v>46</v>
       </c>
       <c r="K36">
-        <v>0.3609022556390977</v>
+        <v>0.3580246913580247</v>
       </c>
       <c r="L36">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1643,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1651,25 +1678,25 @@
         <v>47</v>
       </c>
       <c r="K37">
-        <v>0.3509933774834437</v>
+        <v>0.3557692307692308</v>
       </c>
       <c r="L37">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="M37">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>98</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1677,7 +1704,7 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>0.3381294964028777</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L38">
         <v>47</v>
@@ -1695,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1703,13 +1730,13 @@
         <v>49</v>
       </c>
       <c r="K39">
-        <v>0.3267326732673267</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L39">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1721,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1729,13 +1756,13 @@
         <v>50</v>
       </c>
       <c r="K40">
-        <v>0.3121636167922497</v>
+        <v>0.3186221743810549</v>
       </c>
       <c r="L40">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M40">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1747,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1755,13 +1782,13 @@
         <v>51</v>
       </c>
       <c r="K41">
-        <v>0.3063063063063063</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L41">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1773,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1781,25 +1808,25 @@
         <v>52</v>
       </c>
       <c r="K42">
-        <v>0.2956298200514139</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="L42">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="M42">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c r="N42">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>548</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1807,13 +1834,13 @@
         <v>53</v>
       </c>
       <c r="K43">
-        <v>0.2913907284768212</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L43">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1825,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>535</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1833,13 +1860,13 @@
         <v>54</v>
       </c>
       <c r="K44">
-        <v>0.287037037037037</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L44">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M44">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1851,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1859,13 +1886,13 @@
         <v>55</v>
       </c>
       <c r="K45">
-        <v>0.2633228840125392</v>
+        <v>0.2980132450331126</v>
       </c>
       <c r="L45">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="M45">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1877,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>235</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1885,25 +1912,25 @@
         <v>56</v>
       </c>
       <c r="K46">
-        <v>0.2608695652173913</v>
+        <v>0.2940397350993377</v>
       </c>
       <c r="L46">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="M46">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>272</v>
+        <v>533</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1911,25 +1938,25 @@
         <v>57</v>
       </c>
       <c r="K47">
-        <v>0.2439024390243902</v>
+        <v>0.2789203084832905</v>
       </c>
       <c r="L47">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="M47">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>124</v>
+        <v>561</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1937,25 +1964,25 @@
         <v>58</v>
       </c>
       <c r="K48">
-        <v>0.2348993288590604</v>
+        <v>0.2578616352201258</v>
       </c>
       <c r="L48">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="M48">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>114</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1963,25 +1990,25 @@
         <v>59</v>
       </c>
       <c r="K49">
-        <v>0.2258771929824561</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L49">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="M49">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1989,13 +2016,13 @@
         <v>60</v>
       </c>
       <c r="K50">
-        <v>0.2230769230769231</v>
+        <v>0.2483221476510067</v>
       </c>
       <c r="L50">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M50">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2007,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2015,13 +2042,13 @@
         <v>61</v>
       </c>
       <c r="K51">
-        <v>0.2132352941176471</v>
+        <v>0.2445652173913044</v>
       </c>
       <c r="L51">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M51">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N51">
         <v>0.97</v>
@@ -2033,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>321</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2041,25 +2068,25 @@
         <v>62</v>
       </c>
       <c r="K52">
-        <v>0.211031175059952</v>
+        <v>0.2377049180327869</v>
       </c>
       <c r="L52">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="N52">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>329</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2067,25 +2094,25 @@
         <v>63</v>
       </c>
       <c r="K53">
-        <v>0.2074074074074074</v>
+        <v>0.2248803827751196</v>
       </c>
       <c r="L53">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="M53">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="N53">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O53">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>214</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2093,13 +2120,13 @@
         <v>64</v>
       </c>
       <c r="K54">
-        <v>0.2031963470319635</v>
+        <v>0.2227722772277228</v>
       </c>
       <c r="L54">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="M54">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="N54">
         <v>0.98</v>
@@ -2111,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>349</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2119,25 +2146,25 @@
         <v>65</v>
       </c>
       <c r="K55">
-        <v>0.1691542288557214</v>
+        <v>0.2208588957055215</v>
       </c>
       <c r="L55">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M55">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N55">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O55">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2145,25 +2172,25 @@
         <v>66</v>
       </c>
       <c r="K56">
-        <v>0.1687763713080169</v>
+        <v>0.2103321033210332</v>
       </c>
       <c r="L56">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="M56">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N56">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2171,25 +2198,25 @@
         <v>67</v>
       </c>
       <c r="K57">
-        <v>0.1666666666666667</v>
+        <v>0.1981776765375854</v>
       </c>
       <c r="L57">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="M57">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>225</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2197,25 +2224,25 @@
         <v>68</v>
       </c>
       <c r="K58">
-        <v>0.1458333333333333</v>
+        <v>0.1751412429378531</v>
       </c>
       <c r="L58">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M58">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N58">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>246</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2223,25 +2250,25 @@
         <v>69</v>
       </c>
       <c r="K59">
-        <v>0.1433926897844424</v>
+        <v>0.1687763713080169</v>
       </c>
       <c r="L59">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="M59">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="N59">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O59">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>914</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2249,25 +2276,25 @@
         <v>70</v>
       </c>
       <c r="K60">
-        <v>0.1381294964028777</v>
+        <v>0.1605839416058394</v>
       </c>
       <c r="L60">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="M60">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="N60">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>599</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2275,25 +2302,25 @@
         <v>71</v>
       </c>
       <c r="K61">
-        <v>0.133879781420765</v>
+        <v>0.1487889273356401</v>
       </c>
       <c r="L61">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M61">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>317</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2301,25 +2328,25 @@
         <v>72</v>
       </c>
       <c r="K62">
-        <v>0.1199226305609284</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="L62">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M62">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="N62">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>455</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2327,25 +2354,25 @@
         <v>73</v>
       </c>
       <c r="K63">
-        <v>0.1020052310374891</v>
+        <v>0.1356407857811038</v>
       </c>
       <c r="L63">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="M63">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="N63">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="O63">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>1030</v>
+        <v>924</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2353,25 +2380,25 @@
         <v>74</v>
       </c>
       <c r="K64">
-        <v>0.1018518518518518</v>
+        <v>0.1301115241635688</v>
       </c>
       <c r="L64">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="M64">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="N64">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O64">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>485</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2379,25 +2406,259 @@
         <v>75</v>
       </c>
       <c r="K65">
+        <v>0.125</v>
+      </c>
+      <c r="L65">
+        <v>31</v>
+      </c>
+      <c r="M65">
+        <v>31</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K66">
+        <v>0.125</v>
+      </c>
+      <c r="L66">
+        <v>87</v>
+      </c>
+      <c r="M66">
+        <v>89</v>
+      </c>
+      <c r="N66">
+        <v>0.98</v>
+      </c>
+      <c r="O66">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K67">
+        <v>0.1148148148148148</v>
+      </c>
+      <c r="L67">
+        <v>31</v>
+      </c>
+      <c r="M67">
+        <v>33</v>
+      </c>
+      <c r="N67">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O67">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K68">
+        <v>0.0893854748603352</v>
+      </c>
+      <c r="L68">
+        <v>48</v>
+      </c>
+      <c r="M68">
+        <v>53</v>
+      </c>
+      <c r="N68">
+        <v>0.91</v>
+      </c>
+      <c r="O68">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K69">
         <v>0.08695652173913043</v>
       </c>
-      <c r="L65">
+      <c r="L69">
+        <v>100</v>
+      </c>
+      <c r="M69">
+        <v>107</v>
+      </c>
+      <c r="N69">
+        <v>0.93</v>
+      </c>
+      <c r="O69">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K70">
+        <v>0.08505154639175258</v>
+      </c>
+      <c r="L70">
+        <v>33</v>
+      </c>
+      <c r="M70">
+        <v>39</v>
+      </c>
+      <c r="N70">
+        <v>0.85</v>
+      </c>
+      <c r="O70">
+        <v>0.15</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K71">
+        <v>0.08055555555555556</v>
+      </c>
+      <c r="L71">
+        <v>29</v>
+      </c>
+      <c r="M71">
         <v>34</v>
       </c>
-      <c r="M65">
-        <v>37</v>
-      </c>
-      <c r="N65">
-        <v>0.92</v>
-      </c>
-      <c r="O65">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>357</v>
+      <c r="N71">
+        <v>0.85</v>
+      </c>
+      <c r="O71">
+        <v>0.15</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K72">
+        <v>0.08009708737864078</v>
+      </c>
+      <c r="L72">
+        <v>33</v>
+      </c>
+      <c r="M72">
+        <v>35</v>
+      </c>
+      <c r="N72">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O72">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K73">
+        <v>0.07321772639691715</v>
+      </c>
+      <c r="L73">
+        <v>38</v>
+      </c>
+      <c r="M73">
+        <v>41</v>
+      </c>
+      <c r="N73">
+        <v>0.93</v>
+      </c>
+      <c r="O73">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K74">
+        <v>0.05740987983978638</v>
+      </c>
+      <c r="L74">
+        <v>43</v>
+      </c>
+      <c r="M74">
+        <v>61</v>
+      </c>
+      <c r="N74">
+        <v>0.7</v>
+      </c>
+      <c r="O74">
+        <v>0.3</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
